--- a/Results/ErrorTrackingEspresso.xlsx
+++ b/Results/ErrorTrackingEspresso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8CD5EB29-5643-DD46-B122-DF76B967128A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F46BF1-66C9-5A40-8AAB-E65DE12419F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31520" windowHeight="15100" tabRatio="272" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31520" windowHeight="18720" tabRatio="272" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APPLICATIONS" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">APPLICATIONS!$A$1:$D$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'COMPARISONS'!$A$1:$D$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">COMPARISONS!$A$1:$D$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">APPLICATIONS!$3:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'COMPARISONS'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">COMPARISONS!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -361,6 +361,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -373,9 +376,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -496,11 +496,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Comparisons" displayName="Comparisons" ref="B3:C4" headerRowDxfId="4" dataDxfId="0" totalsRowDxfId="3" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Comparisons" displayName="Comparisons" ref="B3:C4" headerRowDxfId="4" dataDxfId="3" totalsRowDxfId="2" headerRowCellStyle="Normal">
   <autoFilter ref="B3:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Default Configuration" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration C2(Depth1)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Default Configuration" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration C2(Depth1)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="College comparison tracker table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -873,7 +873,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -903,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="306" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" ht="409" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
